--- a/Avaliacoes/M2/Analise-SO-M2.xlsx
+++ b/Avaliacoes/M2/Analise-SO-M2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acanixz\Desktop\Projects\SO-Codes\Avaliacoes\M2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBE6983-DB21-4D5E-9817-434C76084431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93E5791-AADA-4096-98A1-9E474F6DCA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="3135" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
